--- a/CSV/PeriodClosingEfficiency.xlsx
+++ b/CSV/PeriodClosingEfficiency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colig\OneDrive\Desktop\Università\Tesi_Magistrale\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B42910-32BF-4A43-903B-F561607C1270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16BB6B1-837E-4B7A-807E-691E9CA06090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{768AA3F2-DC0A-4D8C-A9D1-AA78C7643DF0}"/>
   </bookViews>
@@ -609,15 +609,9 @@
     <t>ID</t>
   </si>
   <si>
-    <t>PostingType Lable</t>
-  </si>
-  <si>
     <t>Posting Type</t>
   </si>
   <si>
-    <t>Journal Category</t>
-  </si>
-  <si>
     <t>Activity ID Mapping</t>
   </si>
   <si>
@@ -826,13 +820,19 @@
   </si>
   <si>
     <t>BankStatement</t>
+  </si>
+  <si>
+    <t>PostingType Label</t>
+  </si>
+  <si>
+    <t>JournalCategory Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,6 +858,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -890,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -904,6 +913,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1279,7 +1289,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2143,7 @@
       <c r="M36" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2280,7 +2290,7 @@
       <c r="L45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2288,10 +2298,12 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="N5" r:id="rId1" xr:uid="{0BAF5653-AA3C-44CA-A8A9-9AAB290A7006}"/>
+    <hyperlink ref="N36" r:id="rId2" xr:uid="{62555F20-2716-443E-8402-D6F2916E5055}"/>
+    <hyperlink ref="N45" r:id="rId3" xr:uid="{FA21AF9F-60E7-4AEA-AFB1-D99BF11AEE14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2300,16 +2312,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8F3E7-6632-4966-8F22-C2D3C3494B11}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -2320,25 +2332,25 @@
         <v>182</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2346,13 +2358,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
         <v>179</v>
@@ -2363,13 +2375,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
         <v>31</v>
@@ -2380,13 +2392,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
         <v>59</v>
@@ -2397,13 +2409,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -2414,13 +2426,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -2431,13 +2443,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
         <v>31</v>
@@ -2448,13 +2460,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -2465,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
         <v>31</v>
@@ -2482,13 +2494,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -2499,13 +2511,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -2516,13 +2528,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
@@ -2533,13 +2545,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
         <v>137</v>
@@ -2550,13 +2562,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
         <v>137</v>
@@ -2567,13 +2579,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
         <v>129</v>
@@ -2584,13 +2596,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -2601,13 +2613,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
         <v>49</v>
@@ -2618,13 +2630,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -2635,13 +2647,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2652,13 +2664,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" t="s">
         <v>129</v>
@@ -2669,13 +2681,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -2686,13 +2698,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
         <v>129</v>
@@ -2703,13 +2715,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E23" t="s">
         <v>129</v>
@@ -2720,13 +2732,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
         <v>144</v>
@@ -2737,13 +2749,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
         <v>144</v>
@@ -2754,13 +2766,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
         <v>144</v>
@@ -2771,13 +2783,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
         <v>137</v>
@@ -2788,13 +2800,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E28" t="s">
         <v>80</v>
@@ -2805,13 +2817,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -2822,13 +2834,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
         <v>144</v>
@@ -2839,13 +2851,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E31" t="s">
         <v>49</v>
@@ -2856,13 +2868,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
         <v>64</v>
@@ -2873,13 +2885,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C33">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -2890,13 +2902,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C34">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -2907,13 +2919,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
         <v>137</v>
@@ -2924,13 +2936,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C36">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
         <v>26</v>
@@ -2941,13 +2953,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C37">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E37" t="s">
         <v>144</v>
@@ -2958,13 +2970,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
         <v>64</v>
@@ -2975,13 +2987,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C39">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
         <v>59</v>
@@ -2992,13 +3004,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
         <v>49</v>
@@ -3009,13 +3021,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C41">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -3026,13 +3038,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E42" t="s">
         <v>179</v>
@@ -3043,13 +3055,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C43">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
         <v>88</v>
@@ -3060,13 +3072,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C44">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
         <v>55</v>
@@ -3077,13 +3089,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C45">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
         <v>137</v>
@@ -3094,13 +3106,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
         <v>23</v>
@@ -3111,19 +3123,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C47">
         <v>14</v>
       </c>
       <c r="D47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" t="s">
         <v>208</v>
-      </c>
-      <c r="E47" t="s">
-        <v>209</v>
-      </c>
-      <c r="F47" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,13 +3143,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C48">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E48" t="s">
         <v>23</v>
@@ -3148,13 +3160,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C49">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E49" t="s">
         <v>49</v>
@@ -3165,13 +3177,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
         <v>144</v>
@@ -3182,25 +3194,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C51">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3208,13 +3220,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C52">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -3225,13 +3237,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C53">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" t="s">
         <v>179</v>
@@ -3242,13 +3254,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C54">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
         <v>59</v>
@@ -3259,13 +3271,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C55">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
@@ -3276,13 +3288,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C56">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
         <v>72</v>
@@ -3293,13 +3305,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C57">
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E57" t="s">
         <v>59</v>
@@ -3310,13 +3322,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C58">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E58" t="s">
         <v>72</v>
@@ -3327,13 +3339,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E59" t="s">
         <v>72</v>
@@ -3344,13 +3356,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C60">
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
         <v>26</v>
@@ -3361,13 +3373,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C61">
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E61" t="s">
         <v>26</v>
@@ -3378,13 +3390,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C62">
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
         <v>26</v>
@@ -3395,13 +3407,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C63">
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
         <v>49</v>
@@ -3412,13 +3424,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C64">
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E64" t="s">
         <v>23</v>
@@ -3429,13 +3441,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C65">
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
         <v>59</v>
@@ -3446,13 +3458,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C66">
         <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E66" t="s">
         <v>31</v>
@@ -3463,13 +3475,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C67">
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67" t="s">
         <v>26</v>
@@ -3480,13 +3492,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C68">
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
         <v>49</v>
@@ -3497,13 +3509,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C69">
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
         <v>55</v>
@@ -3514,13 +3526,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C70">
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E70" t="s">
         <v>59</v>
@@ -3531,16 +3543,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C71">
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3548,16 +3560,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72">
         <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3565,13 +3577,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C73">
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
         <v>59</v>
@@ -3582,13 +3594,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C74">
         <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
         <v>59</v>
@@ -3599,16 +3611,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C75">
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3616,13 +3628,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C76">
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
         <v>59</v>
@@ -3633,13 +3645,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C77">
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
         <v>59</v>
@@ -3650,13 +3662,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C78">
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
         <v>26</v>
@@ -3667,13 +3679,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C79">
         <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E79" t="s">
         <v>23</v>
@@ -3684,13 +3696,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C80">
         <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
@@ -3701,13 +3713,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C81">
         <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -3718,13 +3730,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C82">
         <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
         <v>23</v>
@@ -3735,13 +3747,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C83">
         <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
         <v>26</v>
@@ -3752,13 +3764,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C84">
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E84" t="s">
         <v>31</v>
@@ -3769,13 +3781,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C85">
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -3786,13 +3798,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C86">
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -3803,13 +3815,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C87">
         <v>45</v>
       </c>
       <c r="D87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" t="s">
         <v>26</v>
@@ -3820,13 +3832,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C88">
         <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E88" t="s">
         <v>26</v>
@@ -3837,13 +3849,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C89">
         <v>47</v>
       </c>
       <c r="D89" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -3854,13 +3866,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C90">
         <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
         <v>26</v>
@@ -3871,13 +3883,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C91">
         <v>48</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E91" t="s">
         <v>26</v>
@@ -3888,13 +3900,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C92">
         <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
         <v>26</v>
@@ -3905,13 +3917,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C93">
         <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E93" t="s">
         <v>59</v>
@@ -3922,13 +3934,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C94">
         <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E94" t="s">
         <v>49</v>
@@ -3939,13 +3951,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C95">
         <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E95" t="s">
         <v>49</v>
@@ -3956,13 +3968,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C96">
         <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E96" t="s">
         <v>49</v>
@@ -3973,13 +3985,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C97">
         <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E97" t="s">
         <v>49</v>
@@ -3990,13 +4002,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C98">
         <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E98" t="s">
         <v>49</v>
@@ -4007,13 +4019,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C99">
         <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -4024,13 +4036,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C100">
         <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -4041,13 +4053,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C101">
         <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -4058,13 +4070,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C102">
         <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -4075,13 +4087,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C103">
         <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -4092,13 +4104,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C104">
         <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -4109,13 +4121,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C105">
         <v>83</v>
       </c>
       <c r="D105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -4126,13 +4138,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C106">
         <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
         <v>148</v>
@@ -4143,13 +4155,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C107">
         <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E107" t="s">
         <v>148</v>
@@ -4160,13 +4172,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C108">
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E108" t="s">
         <v>148</v>
@@ -4177,13 +4189,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C109">
         <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E109" t="s">
         <v>148</v>
@@ -4194,13 +4206,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C110">
         <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E110" t="s">
         <v>148</v>
@@ -4211,16 +4223,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C111">
         <v>128</v>
       </c>
       <c r="D111" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4228,16 +4240,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C112">
         <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4245,16 +4257,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C113">
         <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4262,13 +4274,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C114">
         <v>144</v>
       </c>
       <c r="D114" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E114" t="s">
         <v>148</v>
@@ -4279,13 +4291,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C115">
         <v>156</v>
       </c>
       <c r="D115" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E115" t="s">
         <v>49</v>
@@ -4296,13 +4308,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C116">
         <v>161</v>
       </c>
       <c r="D116" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E116" t="s">
         <v>85</v>
@@ -4313,13 +4325,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C117">
         <v>161</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E117" t="s">
         <v>80</v>
@@ -4330,13 +4342,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118">
         <v>161</v>
       </c>
       <c r="D118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E118" t="s">
         <v>80</v>
@@ -4347,13 +4359,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C119">
         <v>161</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E119" t="s">
         <v>80</v>
@@ -4364,13 +4376,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C120">
         <v>161</v>
       </c>
       <c r="D120" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E120" t="s">
         <v>80</v>
@@ -4381,13 +4393,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C121">
         <v>161</v>
       </c>
       <c r="D121" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E121" t="s">
         <v>80</v>
@@ -4398,13 +4410,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C122">
         <v>162</v>
       </c>
       <c r="D122" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E122" t="s">
         <v>85</v>
@@ -4415,13 +4427,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C123">
         <v>162</v>
       </c>
       <c r="D123" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E123" t="s">
         <v>80</v>
@@ -4432,13 +4444,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C124">
         <v>162</v>
       </c>
       <c r="D124" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E124" t="s">
         <v>80</v>
@@ -4449,13 +4461,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C125">
         <v>162</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E125" t="s">
         <v>80</v>
@@ -4466,13 +4478,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C126">
         <v>162</v>
       </c>
       <c r="D126" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E126" t="s">
         <v>80</v>
@@ -4483,13 +4495,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C127">
         <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -4500,13 +4512,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C128">
         <v>204</v>
       </c>
       <c r="D128" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -4517,13 +4529,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C129">
         <v>206</v>
       </c>
       <c r="D129" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E129" t="s">
         <v>49</v>
@@ -4534,13 +4546,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C130">
         <v>212</v>
       </c>
       <c r="D130" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -4551,13 +4563,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C131">
         <v>212</v>
       </c>
       <c r="D131" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -4568,13 +4580,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C132">
         <v>214</v>
       </c>
       <c r="D132" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -4585,13 +4597,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C133">
         <v>236</v>
       </c>
       <c r="D133" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -4602,13 +4614,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C134">
         <v>236</v>
       </c>
       <c r="D134" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -4619,13 +4631,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C135">
         <v>249</v>
       </c>
       <c r="D135" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E135" t="s">
         <v>72</v>

--- a/CSV/PeriodClosingEfficiency.xlsx
+++ b/CSV/PeriodClosingEfficiency.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colig\OneDrive\Desktop\Università\Tesi_Magistrale\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16BB6B1-837E-4B7A-807E-691E9CA06090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC7B01-4FA3-43B3-A374-6A178149F003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{768AA3F2-DC0A-4D8C-A9D1-AA78C7643DF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{768AA3F2-DC0A-4D8C-A9D1-AA78C7643DF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="252">
   <si>
     <t>Activity</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Post Vendor Invoice Journals</t>
-  </si>
-  <si>
-    <t>ACT02</t>
   </si>
   <si>
     <t>use OCR, use Exflow, has e-invoice ?</t>
@@ -212,9 +209,6 @@
     <t>Post all pending free text invoices</t>
   </si>
   <si>
-    <t>ACT08</t>
-  </si>
-  <si>
     <t>Accounts Receivable &gt; Invoices &gt; Free text Invoice</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   </si>
   <si>
     <t>To have accurate Customer statement and aging</t>
-  </si>
-  <si>
-    <t>ACT10</t>
   </si>
   <si>
     <t>Accounts Receivable &gt; Periodic &gt; Foreign Currency Revaluation</t>
@@ -621,218 +612,215 @@
     <t>None</t>
   </si>
   <si>
+    <t>Sales tax</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Foreign currency revaluation</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>General journal</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Sales order</t>
+  </si>
+  <si>
+    <t>Purchase order</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
+    <t>MSTDiffSecond</t>
+  </si>
+  <si>
+    <t>Fixed assets</t>
+  </si>
+  <si>
+    <t>MSTDiff</t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>LedgerJournal</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>ACT03,ACT09</t>
+  </si>
+  <si>
+    <t>2381 per clienti, 11382 per fornitori</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0 = ACT32</t>
+  </si>
+  <si>
+    <t>13=ACT15</t>
+  </si>
+  <si>
+    <t>TransferOpeningClosing</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>TaxWithhold</t>
+  </si>
+  <si>
+    <t>CustBalance</t>
+  </si>
+  <si>
+    <t>CustRevenue</t>
+  </si>
+  <si>
+    <t>CustCashDisc</t>
+  </si>
+  <si>
+    <t>CustInvoiceDisc</t>
+  </si>
+  <si>
+    <t>CustSettlement</t>
+  </si>
+  <si>
+    <t>VendBalance</t>
+  </si>
+  <si>
+    <t>VendPurchLedger</t>
+  </si>
+  <si>
+    <t>VendCashDisc</t>
+  </si>
+  <si>
+    <t>VendInvoiceDisc</t>
+  </si>
+  <si>
+    <t>VendSettlement</t>
+  </si>
+  <si>
+    <t>CrossCompanySettlement</t>
+  </si>
+  <si>
+    <t>SalesRevenue</t>
+  </si>
+  <si>
+    <t>SalesRoundOff</t>
+  </si>
+  <si>
+    <t>SalesPckSlipRevenue</t>
+  </si>
+  <si>
+    <t>SalesPckSlipRevenueOffsetAccou</t>
+  </si>
+  <si>
+    <t>PurchConsump</t>
+  </si>
+  <si>
+    <t>PurchDisc</t>
+  </si>
+  <si>
+    <t>PurchFee</t>
+  </si>
+  <si>
+    <t>PurchPostage</t>
+  </si>
+  <si>
+    <t>PurchaseInvoiceRoundOff</t>
+  </si>
+  <si>
+    <t>PurchOffsetAccountPckSlp</t>
+  </si>
+  <si>
+    <t>ProjCost</t>
+  </si>
+  <si>
+    <t>ProjPayrollAllocation</t>
+  </si>
+  <si>
+    <t>ProjSalesvalue</t>
+  </si>
+  <si>
+    <t>ProjSalesvalueOffset</t>
+  </si>
+  <si>
+    <t>ProjWIPInvoicedOnAccount</t>
+  </si>
+  <si>
+    <t>DeferredCost</t>
+  </si>
+  <si>
+    <t>ReportingCurrencyAdjustment</t>
+  </si>
+  <si>
+    <t>FixedAssetsDebit</t>
+  </si>
+  <si>
+    <t>FixedAssetsCredit</t>
+  </si>
+  <si>
+    <t>PurchPckSlpPurchaseOffsetAccou</t>
+  </si>
+  <si>
+    <t>PurchPckSlpTax</t>
+  </si>
+  <si>
+    <t>SalesPackingslipTax</t>
+  </si>
+  <si>
+    <t>PurchAdvance</t>
+  </si>
+  <si>
+    <t>PurchAdvanceApplication</t>
+  </si>
+  <si>
+    <t>PurchExpense</t>
+  </si>
+  <si>
+    <t>BankStatement</t>
+  </si>
+  <si>
+    <t>PostingType Label</t>
+  </si>
+  <si>
+    <t>JournalCategory Label</t>
+  </si>
+  <si>
+    <t>1,2,3,8,10 = ACT01</t>
+  </si>
+  <si>
     <t>ExchRateGain</t>
   </si>
   <si>
-    <t>Sales tax</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Foreign currency revaluation</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
     <t>ExchRateLoss</t>
   </si>
   <si>
     <t>InterCompany</t>
   </si>
   <si>
-    <t>General journal</t>
-  </si>
-  <si>
     <t>Tax</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>Sales order</t>
-  </si>
-  <si>
-    <t>Purchase order</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Allocation</t>
-  </si>
-  <si>
-    <t>MSTDiffSecond</t>
-  </si>
-  <si>
-    <t>Fixed assets</t>
-  </si>
-  <si>
-    <t>MSTDiff</t>
-  </si>
-  <si>
-    <t>Closing</t>
-  </si>
-  <si>
-    <t>LedgerJournal</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>ACT03,ACT09</t>
-  </si>
-  <si>
-    <t>2381 per clienti, 11382 per fornitori</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0 = ACT32</t>
-  </si>
-  <si>
-    <t>1,2,3,8,10 = ACT02</t>
-  </si>
-  <si>
-    <t>13=ACT15</t>
-  </si>
-  <si>
-    <t>TransferOpeningClosing</t>
-  </si>
-  <si>
-    <t>Bank</t>
-  </si>
-  <si>
-    <t>TaxWithhold</t>
-  </si>
-  <si>
-    <t>CustBalance</t>
-  </si>
-  <si>
-    <t>CustRevenue</t>
-  </si>
-  <si>
-    <t>ACT07,ACT08</t>
-  </si>
-  <si>
-    <t>CustCashDisc</t>
-  </si>
-  <si>
-    <t>CustInvoiceDisc</t>
-  </si>
-  <si>
-    <t>CustSettlement</t>
-  </si>
-  <si>
-    <t>VendBalance</t>
-  </si>
-  <si>
-    <t>VendPurchLedger</t>
-  </si>
-  <si>
-    <t>VendCashDisc</t>
-  </si>
-  <si>
-    <t>VendInvoiceDisc</t>
-  </si>
-  <si>
-    <t>VendSettlement</t>
-  </si>
-  <si>
-    <t>CrossCompanySettlement</t>
-  </si>
-  <si>
-    <t>SalesRevenue</t>
-  </si>
-  <si>
-    <t>SalesRoundOff</t>
-  </si>
-  <si>
-    <t>SalesPckSlipRevenue</t>
-  </si>
-  <si>
-    <t>SalesPckSlipRevenueOffsetAccou</t>
-  </si>
-  <si>
-    <t>PurchConsump</t>
-  </si>
-  <si>
-    <t>PurchDisc</t>
-  </si>
-  <si>
-    <t>PurchFee</t>
-  </si>
-  <si>
-    <t>PurchPostage</t>
-  </si>
-  <si>
-    <t>PurchaseInvoiceRoundOff</t>
-  </si>
-  <si>
-    <t>PurchOffsetAccountPckSlp</t>
-  </si>
-  <si>
-    <t>ProjCost</t>
-  </si>
-  <si>
-    <t>ProjPayrollAllocation</t>
-  </si>
-  <si>
-    <t>ProjSalesvalue</t>
-  </si>
-  <si>
-    <t>ProjSalesvalueOffset</t>
-  </si>
-  <si>
-    <t>ProjWIPInvoicedOnAccount</t>
-  </si>
-  <si>
-    <t>DeferredCost</t>
-  </si>
-  <si>
-    <t>ReportingCurrencyAdjustment</t>
-  </si>
-  <si>
-    <t>FixedAssetsDebit</t>
-  </si>
-  <si>
-    <t>FixedAssetsCredit</t>
-  </si>
-  <si>
-    <t>PurchPckSlpPurchaseOffsetAccou</t>
-  </si>
-  <si>
-    <t>PurchPckSlpTax</t>
-  </si>
-  <si>
-    <t>SalesPackingslipTax</t>
-  </si>
-  <si>
-    <t>PurchAdvance</t>
-  </si>
-  <si>
-    <t>PurchAdvanceApplication</t>
-  </si>
-  <si>
-    <t>PurchExpense</t>
-  </si>
-  <si>
-    <t>BankStatement</t>
-  </si>
-  <si>
-    <t>PostingType Label</t>
-  </si>
-  <si>
-    <t>JournalCategory Label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +859,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -899,7 +893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -914,6 +908,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1288,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E345BE8-FEDF-4F0A-AAD3-EC58A843BA1A}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,7 +1380,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1397,15 +1392,15 @@
         <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -1414,24 +1409,24 @@
         <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1440,30 +1435,30 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1472,567 +1467,567 @@
         <v>19</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" t="s">
         <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="H10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
         <v>34</v>
-      </c>
-      <c r="N11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" t="s">
         <v>46</v>
-      </c>
-      <c r="N13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
         <v>19</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N25" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
@@ -2040,258 +2035,258 @@
     </row>
     <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="L32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" t="s">
         <v>19</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J37" t="s">
         <v>19</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J38" t="s">
         <v>19</v>
       </c>
       <c r="L38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J39" t="s">
         <v>19</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J40" t="s">
         <v>19</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J41" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42" t="s">
         <v>19</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J44" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J45" t="s">
         <v>19</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2312,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8F3E7-6632-4966-8F22-C2D3C3494B11}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2322,35 +2317,35 @@
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2358,16 +2353,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2375,16 +2370,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2392,16 +2387,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2409,16 +2404,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2426,16 +2421,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2443,16 +2438,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2460,16 +2455,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2477,16 +2472,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2494,16 +2489,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2511,16 +2506,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2528,16 +2523,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2545,16 +2540,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2562,16 +2557,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2579,16 +2574,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2596,16 +2591,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2613,16 +2608,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2630,13 +2625,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -2647,13 +2642,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -2664,16 +2659,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,16 +2676,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2698,16 +2693,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2715,16 +2710,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
-      </c>
-      <c r="E23" t="s">
-        <v>129</v>
+        <v>188</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2732,16 +2727,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C24">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,16 +2744,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C25">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2766,16 +2761,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2783,16 +2778,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C27">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2800,16 +2795,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C28">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2817,16 +2812,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C29">
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,16 +2829,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C30">
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,16 +2846,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C31">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2868,16 +2863,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C32">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2885,16 +2880,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C33">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2902,13 +2897,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C34">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -2919,16 +2914,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2936,16 +2931,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C36">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,16 +2948,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C37">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2970,16 +2965,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C38">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,16 +2982,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C39">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,16 +2999,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C40">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,13 +3016,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C41">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -3038,16 +3033,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,16 +3050,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C43">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3072,16 +3067,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C44">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3089,16 +3084,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C45">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3106,16 +3101,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3123,19 +3118,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C47">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F47" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3143,16 +3138,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C48">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3160,16 +3155,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C49">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3177,16 +3172,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C50">
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3194,25 +3189,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C51">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3220,13 +3215,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C52">
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -3237,16 +3232,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C53">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3254,16 +3249,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C54">
         <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3271,16 +3266,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C55">
         <v>20</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3288,16 +3283,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C56">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3305,16 +3300,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C57">
         <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3322,16 +3317,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C58">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3339,16 +3334,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3356,16 +3351,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C60">
         <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3373,16 +3368,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C61">
         <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3390,16 +3385,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C62">
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3407,16 +3402,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C63">
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3424,16 +3419,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C64">
         <v>31</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3441,16 +3436,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C65">
         <v>31</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3458,16 +3453,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C66">
         <v>31</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3475,16 +3470,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C67">
         <v>31</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3492,16 +3487,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C68">
         <v>31</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3509,16 +3504,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C69">
         <v>31</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3526,16 +3521,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C70">
         <v>31</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3543,16 +3538,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C71">
         <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E71" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3560,16 +3555,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C72">
         <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3577,16 +3572,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C73">
         <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3594,16 +3589,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C74">
         <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,16 +3606,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C75">
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3628,16 +3623,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C76">
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3645,16 +3640,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C77">
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3662,16 +3657,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C78">
         <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3679,16 +3674,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C79">
         <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3696,16 +3691,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C80">
         <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3713,13 +3708,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C81">
         <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -3730,16 +3725,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C82">
         <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3747,16 +3742,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C83">
         <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3764,16 +3759,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C84">
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3781,13 +3776,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C85">
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -3798,13 +3793,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C86">
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -3815,16 +3810,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C87">
         <v>45</v>
       </c>
       <c r="D87" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3832,16 +3827,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C88">
         <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3849,13 +3844,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C89">
         <v>47</v>
       </c>
       <c r="D89" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -3866,16 +3861,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C90">
         <v>48</v>
       </c>
       <c r="D90" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3883,16 +3878,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C91">
         <v>48</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3900,16 +3895,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C92">
         <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3917,16 +3912,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C93">
         <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3934,16 +3929,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C94">
         <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3951,16 +3946,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C95">
         <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3968,16 +3963,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C96">
         <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,16 +3980,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C97">
         <v>64</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4002,16 +3997,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C98">
         <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4019,13 +4014,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C99">
         <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -4036,13 +4031,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C100">
         <v>72</v>
       </c>
       <c r="D100" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -4053,13 +4048,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C101">
         <v>75</v>
       </c>
       <c r="D101" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -4070,13 +4065,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C102">
         <v>76</v>
       </c>
       <c r="D102" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -4087,13 +4082,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C103">
         <v>78</v>
       </c>
       <c r="D103" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -4104,13 +4099,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C104">
         <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -4121,13 +4116,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C105">
         <v>83</v>
       </c>
       <c r="D105" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -4138,16 +4133,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C106">
         <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E106" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4155,16 +4150,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C107">
         <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4172,16 +4167,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C108">
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -4189,16 +4184,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C109">
         <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E109" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -4206,16 +4201,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C110">
         <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -4223,16 +4218,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C111">
         <v>128</v>
       </c>
       <c r="D111" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,16 +4235,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C112">
         <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E112" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4257,16 +4252,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C113">
         <v>138</v>
       </c>
       <c r="D113" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E113" t="s">
-        <v>218</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4274,16 +4269,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C114">
         <v>144</v>
       </c>
       <c r="D114" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E114" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4291,16 +4286,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C115">
         <v>156</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,16 +4303,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C116">
         <v>161</v>
       </c>
       <c r="D116" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E116" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4325,16 +4320,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C117">
         <v>161</v>
       </c>
       <c r="D117" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4342,16 +4337,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C118">
         <v>161</v>
       </c>
       <c r="D118" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E118" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,16 +4354,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C119">
         <v>161</v>
       </c>
       <c r="D119" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4376,16 +4371,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C120">
         <v>161</v>
       </c>
       <c r="D120" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E120" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4393,16 +4388,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C121">
         <v>161</v>
       </c>
       <c r="D121" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E121" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4410,16 +4405,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C122">
         <v>162</v>
       </c>
       <c r="D122" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E122" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4427,16 +4422,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C123">
         <v>162</v>
       </c>
       <c r="D123" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E123" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4444,16 +4439,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C124">
         <v>162</v>
       </c>
       <c r="D124" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E124" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,16 +4456,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C125">
         <v>162</v>
       </c>
       <c r="D125" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E125" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4478,16 +4473,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C126">
         <v>162</v>
       </c>
       <c r="D126" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E126" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4495,13 +4490,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C127">
         <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -4512,13 +4507,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C128">
         <v>204</v>
       </c>
       <c r="D128" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -4529,16 +4524,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C129">
         <v>206</v>
       </c>
       <c r="D129" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4546,13 +4541,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C130">
         <v>212</v>
       </c>
       <c r="D130" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E130" t="s">
         <v>14</v>
@@ -4563,13 +4558,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C131">
         <v>212</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -4580,13 +4575,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C132">
         <v>214</v>
       </c>
       <c r="D132" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E132" t="s">
         <v>14</v>
@@ -4597,13 +4592,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C133">
         <v>236</v>
       </c>
       <c r="D133" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="E133" t="s">
         <v>14</v>
@@ -4614,13 +4609,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C134">
         <v>236</v>
       </c>
       <c r="D134" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E134" t="s">
         <v>14</v>
@@ -4631,16 +4626,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C135">
         <v>249</v>
       </c>
       <c r="D135" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E135" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/CSV/PeriodClosingEfficiency.xlsx
+++ b/CSV/PeriodClosingEfficiency.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colig\OneDrive\Desktop\Università\Tesi_Magistrale\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC7B01-4FA3-43B3-A374-6A178149F003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6F165-7971-4BCE-9B90-4A3CDF859D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{768AA3F2-DC0A-4D8C-A9D1-AA78C7643DF0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="248">
   <si>
     <t>Activity</t>
   </si>
@@ -666,15 +666,6 @@
     <t>2381 per clienti, 11382 per fornitori</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0 = ACT32</t>
-  </si>
-  <si>
-    <t>13=ACT15</t>
-  </si>
-  <si>
     <t>TransferOpeningClosing</t>
   </si>
   <si>
@@ -799,9 +790,6 @@
   </si>
   <si>
     <t>JournalCategory Label</t>
-  </si>
-  <si>
-    <t>1,2,3,8,10 = ACT01</t>
   </si>
   <si>
     <t>ExchRateGain</t>
@@ -985,9 +973,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1025,7 +1013,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1131,7 +1119,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1273,7 +1261,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2307,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E8F3E7-6632-4966-8F22-C2D3C3494B11}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,13 +2315,13 @@
         <v>179</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>181</v>
@@ -2370,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2387,7 +2375,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2404,7 +2392,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2421,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2438,7 +2426,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2455,7 +2443,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2472,7 +2460,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2489,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2506,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2523,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2540,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2557,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2574,7 +2562,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2591,7 +2579,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2608,7 +2596,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2625,7 +2613,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2642,7 +2630,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2659,7 +2647,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -2676,7 +2664,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2693,7 +2681,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2710,7 +2698,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -3198,17 +3186,11 @@
         <v>183</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -3232,7 +3214,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C53">
         <v>19</v>
@@ -3249,7 +3231,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -3266,7 +3248,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C55">
         <v>20</v>
@@ -3283,7 +3265,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C56">
         <v>20</v>
@@ -3300,7 +3282,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C57">
         <v>20</v>
@@ -3317,7 +3299,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -3334,13 +3316,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C59">
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E59" t="s">
         <v>69</v>
@@ -3351,7 +3333,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C60">
         <v>23</v>
@@ -3368,7 +3350,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C61">
         <v>23</v>
@@ -3385,7 +3367,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C62">
         <v>23</v>
@@ -3402,7 +3384,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C63">
         <v>31</v>
@@ -3419,7 +3401,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C64">
         <v>31</v>
@@ -3436,7 +3418,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -3453,7 +3435,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C66">
         <v>31</v>
@@ -3470,7 +3452,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C67">
         <v>31</v>
@@ -3487,7 +3469,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C68">
         <v>31</v>
@@ -3504,7 +3486,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C69">
         <v>31</v>
@@ -3521,7 +3503,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C70">
         <v>31</v>
@@ -3538,7 +3520,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C71">
         <v>32</v>
@@ -3555,7 +3537,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C72">
         <v>32</v>
@@ -3572,7 +3554,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C73">
         <v>34</v>
@@ -3589,7 +3571,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C74">
         <v>34</v>
@@ -3606,7 +3588,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C75">
         <v>37</v>
@@ -3623,7 +3605,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C76">
         <v>40</v>
@@ -3640,7 +3622,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C77">
         <v>40</v>
@@ -3657,7 +3639,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C78">
         <v>41</v>
@@ -3674,7 +3656,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C79">
         <v>41</v>
@@ -3691,7 +3673,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C80">
         <v>41</v>
@@ -3708,7 +3690,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C81">
         <v>41</v>
@@ -3725,7 +3707,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C82">
         <v>41</v>
@@ -3742,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C83">
         <v>41</v>
@@ -3759,7 +3741,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C84">
         <v>41</v>
@@ -3776,7 +3758,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C85">
         <v>41</v>
@@ -3793,7 +3775,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C86">
         <v>42</v>
@@ -3810,7 +3792,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C87">
         <v>45</v>
@@ -3827,7 +3809,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C88">
         <v>45</v>
@@ -3844,7 +3826,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C89">
         <v>47</v>
@@ -3861,7 +3843,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C90">
         <v>48</v>
@@ -3878,7 +3860,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C91">
         <v>48</v>
@@ -3895,7 +3877,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C92">
         <v>49</v>
@@ -3912,7 +3894,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C93">
         <v>49</v>
@@ -3929,7 +3911,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C94">
         <v>51</v>
@@ -3946,7 +3928,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C95">
         <v>58</v>
@@ -3963,7 +3945,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C96">
         <v>58</v>
@@ -3980,7 +3962,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C97">
         <v>64</v>
@@ -3997,7 +3979,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C98">
         <v>65</v>
@@ -4014,7 +3996,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C99">
         <v>71</v>
@@ -4031,7 +4013,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C100">
         <v>72</v>
@@ -4048,7 +4030,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C101">
         <v>75</v>
@@ -4065,7 +4047,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C102">
         <v>76</v>
@@ -4082,7 +4064,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C103">
         <v>78</v>
@@ -4099,7 +4081,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C104">
         <v>78</v>
@@ -4116,7 +4098,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C105">
         <v>83</v>
@@ -4133,7 +4115,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C106">
         <v>121</v>
@@ -4150,7 +4132,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C107">
         <v>121</v>
@@ -4167,7 +4149,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C108">
         <v>121</v>
@@ -4184,7 +4166,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C109">
         <v>121</v>
@@ -4201,7 +4183,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C110">
         <v>122</v>
@@ -4218,7 +4200,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C111">
         <v>128</v>
@@ -4235,7 +4217,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C112">
         <v>129</v>
@@ -4252,7 +4234,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C113">
         <v>138</v>
@@ -4269,7 +4251,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C114">
         <v>144</v>
@@ -4286,7 +4268,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C115">
         <v>156</v>
@@ -4303,7 +4285,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C116">
         <v>161</v>
@@ -4320,7 +4302,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C117">
         <v>161</v>
@@ -4337,7 +4319,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -4354,7 +4336,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C119">
         <v>161</v>
@@ -4371,7 +4353,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C120">
         <v>161</v>
@@ -4388,7 +4370,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C121">
         <v>161</v>
@@ -4405,7 +4387,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C122">
         <v>162</v>
@@ -4422,7 +4404,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C123">
         <v>162</v>
@@ -4439,7 +4421,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C124">
         <v>162</v>
@@ -4456,7 +4438,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C125">
         <v>162</v>
@@ -4473,7 +4455,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C126">
         <v>162</v>
@@ -4490,7 +4472,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C127">
         <v>203</v>
@@ -4507,7 +4489,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C128">
         <v>204</v>
@@ -4524,7 +4506,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C129">
         <v>206</v>
@@ -4541,7 +4523,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C130">
         <v>212</v>
@@ -4558,7 +4540,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C131">
         <v>212</v>
@@ -4575,7 +4557,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C132">
         <v>214</v>
@@ -4592,7 +4574,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C133">
         <v>236</v>
@@ -4609,7 +4591,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C134">
         <v>236</v>
@@ -4626,13 +4608,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C135">
         <v>249</v>
       </c>
       <c r="D135" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E135" t="s">
         <v>69</v>
